--- a/6 3/ExactModelData.xlsx
+++ b/6 3/ExactModelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\6 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A48EE1A-0082-4977-BEAA-D21337086B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54AA98D-1B2D-420F-8969-7B7E7E701BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,21 @@
     <sheet name="1D" sheetId="3" r:id="rId1"/>
     <sheet name="Distances" sheetId="1" r:id="rId2"/>
     <sheet name="Times" sheetId="4" r:id="rId3"/>
-    <sheet name="HorseTrailer" sheetId="2" r:id="rId4"/>
-    <sheet name="HorseStore" sheetId="5" r:id="rId5"/>
-    <sheet name="TrailerStore" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="AverageUnload">'1D'!$L$2:$L$9</definedName>
+    <definedName name="CoordinatesX">'1D'!$G$3:$G$8</definedName>
+    <definedName name="CoordinatesY">'1D'!$H$3:$H$8</definedName>
     <definedName name="Demand">'1D'!$I$2:$I$9</definedName>
-    <definedName name="DistanceCost">'1D'!$B$2:$B$4</definedName>
+    <definedName name="DistanceCost">'1D'!$C$2:$C$4</definedName>
     <definedName name="Distances">Distances!$A$1:$H$8</definedName>
-    <definedName name="Horses">'1D'!$A$2:$A$4</definedName>
-    <definedName name="HorseStore">HorseStore!$A$1:$F$2</definedName>
-    <definedName name="HorseTrailer">HorseTrailer!$A$1:$C$3</definedName>
     <definedName name="Locations">'1D'!$F$2:$F$9</definedName>
     <definedName name="PalletCapacity">'1D'!$E$2:$E$4</definedName>
     <definedName name="Stores">'1D'!$F$3:$F$8</definedName>
-    <definedName name="TimeCost">'1D'!$C$2:$C$4</definedName>
+    <definedName name="TimeCost">'1D'!$D$2:$D$4</definedName>
     <definedName name="Times">Times!$A$1:$H$8</definedName>
-    <definedName name="Trailers">'1D'!$D$2:$D$4</definedName>
-    <definedName name="TrailerStore">TrailerStore!$A$1:$F$3</definedName>
+    <definedName name="Vehicles">'1D'!$A$2:$A$4</definedName>
+    <definedName name="VehicleTypes">'1D'!$B$2:$B$4</definedName>
     <definedName name="WindowEnd">'1D'!$K$2:$K$9</definedName>
     <definedName name="WindowStart">'1D'!$J$2:$J$9</definedName>
   </definedNames>
@@ -78,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Pallets</t>
   </si>
@@ -98,12 +94,6 @@
     <t>Time Cost</t>
   </si>
   <si>
-    <t>Trailer</t>
-  </si>
-  <si>
-    <t>Horse</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -113,94 +103,82 @@
     <t>SP2</t>
   </si>
   <si>
+    <t>Depot</t>
+  </si>
+  <si>
+    <t>Average Unload</t>
+  </si>
+  <si>
+    <t>DepotReturn</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Max X &amp; Y</t>
+  </si>
+  <si>
+    <t>Min X &amp; Y</t>
+  </si>
+  <si>
+    <t>Num stores</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Max Demand</t>
+  </si>
+  <si>
+    <t>Distance Cost Min</t>
+  </si>
+  <si>
+    <t>Distance Cost Max</t>
+  </si>
+  <si>
+    <t>Time Cost Max</t>
+  </si>
+  <si>
+    <t>Time Cost Min</t>
+  </si>
+  <si>
+    <t>Chance of having window</t>
+  </si>
+  <si>
+    <t>Unload Min</t>
+  </si>
+  <si>
+    <t>Unload Max</t>
+  </si>
+  <si>
+    <t>Total Demand</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Vehicle Types</t>
+  </si>
+  <si>
+    <t>Rigid</t>
+  </si>
+  <si>
+    <t>8 metre</t>
+  </si>
+  <si>
+    <t>11 metre</t>
+  </si>
+  <si>
+    <t>Number of vehicle types</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
     <t>SP3</t>
-  </si>
-  <si>
-    <t>SP4</t>
-  </si>
-  <si>
-    <t>SP5</t>
-  </si>
-  <si>
-    <t>C 1</t>
-  </si>
-  <si>
-    <t>C 2</t>
-  </si>
-  <si>
-    <t>C 3</t>
-  </si>
-  <si>
-    <t>C 4</t>
-  </si>
-  <si>
-    <t>C 5</t>
-  </si>
-  <si>
-    <t>Depot</t>
-  </si>
-  <si>
-    <t>Average Unload</t>
-  </si>
-  <si>
-    <t>DepotReturn</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Max X &amp; Y</t>
-  </si>
-  <si>
-    <t>Min X &amp; Y</t>
-  </si>
-  <si>
-    <t>Num stores</t>
-  </si>
-  <si>
-    <t>Max Trailer Capacity</t>
-  </si>
-  <si>
-    <t>Min Trailer Capacity</t>
-  </si>
-  <si>
-    <t>Number of vehicles</t>
-  </si>
-  <si>
-    <t>Configuration</t>
-  </si>
-  <si>
-    <t>Max Demand</t>
-  </si>
-  <si>
-    <t>Distance Cost Min</t>
-  </si>
-  <si>
-    <t>Distance Cost Max</t>
-  </si>
-  <si>
-    <t>Time Cost Max</t>
-  </si>
-  <si>
-    <t>Time Cost Min</t>
-  </si>
-  <si>
-    <t>Chance of having window</t>
-  </si>
-  <si>
-    <t>Unload Min</t>
-  </si>
-  <si>
-    <t>Unload Max</t>
-  </si>
-  <si>
-    <t>Compatability Chance</t>
-  </si>
-  <si>
-    <t>Total Demand</t>
   </si>
 </sst>
 </file>
@@ -276,17 +254,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,62 +298,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Plot of Locations on Cartesian Plane</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -426,22 +350,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.048311407560433</c:v>
+                  <c:v>-62.070913465935988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-69.408005179062485</c:v>
+                  <c:v>75.927249014187126</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-14.400390106244998</c:v>
+                  <c:v>-25.482220256579268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-14.110798392272642</c:v>
+                  <c:v>75.434646951969327</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.473951285892298</c:v>
+                  <c:v>-90.924027549961806</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-85.031020318824886</c:v>
+                  <c:v>-58.696650929808186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,22 +380,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-48.559143178165286</c:v>
+                  <c:v>5.9620832933944996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-83.120472733194831</c:v>
+                  <c:v>-50.398161170584402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.736411651668533</c:v>
+                  <c:v>-97.725178219136268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.399092218577351</c:v>
+                  <c:v>90.330359810347204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.517853090628066</c:v>
+                  <c:v>89.253951928259724</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-21.572035620702295</c:v>
+                  <c:v>-38.323122195862553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,6 +422,8 @@
         <c:axId val="506125392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="-100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -555,6 +481,7 @@
         <c:crossAx val="506128344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="506128344"/>
@@ -619,6 +546,7 @@
         <c:crossAx val="506125392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1235,12 +1163,12 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1535,18 +1463,18 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.85546875" customWidth="1"/>
@@ -1554,7 +1482,7 @@
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.42578125" customWidth="1"/>
@@ -1566,30 +1494,30 @@
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1601,34 +1529,46 @@
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>11 metre</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.2883792291030953</v>
+      </c>
+      <c r="D2" s="8">
+        <f ca="1"/>
+        <v>13.070042869362709</v>
+      </c>
+      <c r="E2" s="2">
+        <f ca="1"/>
         <v>30</v>
       </c>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" cm="1">
-        <f t="array" aca="1" ref="B2:B4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>0.70520863761003993</v>
-      </c>
-      <c r="C2" s="2" cm="1">
-        <f t="array" aca="1" ref="C2:C4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>14.712595478692753</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" cm="1">
-        <f t="array" aca="1" ref="E2:E4" ca="1">_xlfn.RANDARRAY(P8,1,P14,P13,TRUE)</f>
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1647,49 +1587,63 @@
       </c>
       <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2:L8" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>0.11767503060454398</v>
+        <v>3.3457985633878529E-2</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="P2">
         <v>6</v>
       </c>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" cm="1">
+        <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
+        <v>0.73987492886276751</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
+        <v>7.9638980804913171</v>
+      </c>
+      <c r="U2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <f ca="1"/>
-        <v>0.84252988456102162</v>
-      </c>
-      <c r="C3" s="2">
-        <f ca="1"/>
-        <v>10.842346599998102</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>8 metre</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>0.724397820298323</v>
+      </c>
+      <c r="D3" s="8">
+        <f ca="1"/>
+        <v>10.270404297638047</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H8" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>28.048311407560433</v>
+        <v>-62.070913465935988</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>-48.559143178165286</v>
+        <v>5.9620832933944996</v>
       </c>
       <c r="I3" cm="1">
-        <f t="array" aca="1" ref="I3:I8" ca="1">_xlfn.RANDARRAY(P2,1,0,ROUNDUP((P17/P2),0),TRUE)</f>
-        <v>7</v>
+        <f t="array" aca="1" ref="I3:I8" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
+        <v>13</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1701,133 +1655,148 @@
       </c>
       <c r="L3">
         <f ca="1"/>
-        <v>3.7170836898416909E-2</v>
+        <v>3.6850207338849972E-2</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
-      <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <f ca="1"/>
+        <v>0.724397820298323</v>
+      </c>
+      <c r="T3">
+        <f ca="1"/>
+        <v>10.270404297638047</v>
+      </c>
+      <c r="U3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <f ca="1"/>
-        <v>0.72119766697548648</v>
-      </c>
-      <c r="C4" s="2">
-        <f ca="1"/>
-        <v>12.997493913585627</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>8 metre</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>0.724397820298323</v>
+      </c>
+      <c r="D4" s="8">
+        <f ca="1"/>
+        <v>10.270404297638047</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>-69.408005179062485</v>
+        <v>75.927249014187126</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>-83.120472733194831</v>
+        <v>-50.398161170584402</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J8" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K6" ca="1" si="1">IF(J4=0,24,J4+1)</f>
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <f ca="1"/>
+        <v>0.10154860063182067</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="L4">
-        <f ca="1"/>
-        <v>0.11009513922557621</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="P4">
         <v>-100</v>
       </c>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4">
+        <f ca="1"/>
+        <v>1.2883792291030953</v>
+      </c>
+      <c r="T4">
+        <f ca="1"/>
+        <v>13.070042869362709</v>
+      </c>
+      <c r="U4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>-14.400390106244998</v>
+        <v>-25.482220256579268</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>93.736411651668533</v>
+        <v>-97.725178219136268</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>8.1366493937166828E-2</v>
+        <v>0.11979806981825189</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="P5" s="5">
         <v>0.33</v>
       </c>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>-14.110798392272642</v>
+        <v>75.434646951969327</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>56.399092218577351</v>
+        <v>90.330359810347204</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
@@ -1839,91 +1808,91 @@
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>8.5964903826979105E-2</v>
+        <v>9.5228050625277422E-2</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P6">
         <f>10/60</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>78.473951285892298</v>
+        <v>-90.924027549961806</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>28.517853090628066</v>
+        <v>89.253951928259724</v>
       </c>
       <c r="I7">
         <f ca="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7" ca="1" si="2">IF(J7=0,24,J7+1)</f>
+        <f t="shared" ref="K7:K8" ca="1" si="2">IF(J7=0,24,J7+1)</f>
         <v>24</v>
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>0.10347271998871768</v>
+        <v>0.14226155620160533</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="P7">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>-85.031020318824886</v>
+        <v>-58.696650929808186</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>-21.572035620702295</v>
+        <v>-38.323122195862553</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8" ca="1" si="3">IF(J8=0,24,J8+1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>24</v>
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>0.12646308262215494</v>
+        <v>9.4706942220746576E-2</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1944,82 +1913,58 @@
         <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="P9">
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O10" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="P10">
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O11" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="P11">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O12" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="P12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O14" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="P14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <f ca="1">SUM(E:E)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="17" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17">
-        <f ca="1">SUM(E:E)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18">
+        <v>26</v>
+      </c>
+      <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P19" s="5">
-        <f ca="1">P18/P17</f>
-        <v>0.76666666666666672</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P16" s="5">
+        <f ca="1">P15/P14</f>
+        <v>0.44594594594594594</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +1983,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,27 +1995,27 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>56.077608356750034</v>
+        <v>62.356593361833738</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>108.2888921834855</v>
+        <v>91.131343632356163</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>94.836101272369362</v>
+        <v>100.99284136594417</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>58.137528622628572</v>
+        <v>117.68585243874918</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>83.495083539806359</v>
+        <v>127.41054399349495</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>87.724723637531397</v>
+        <v>70.099632846504733</v>
       </c>
       <c r="H1">
         <f>SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
@@ -2080,7 +2025,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>56.077608356750034</v>
+        <v>62.356593361833738</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2088,37 +2033,37 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>103.40318729731416</v>
+        <v>149.06364413877023</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>148.4921451947489</v>
+        <v>109.95353869128711</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>113.1088931813605</v>
+        <v>161.32509175042549</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>92.106506344333781</v>
+        <v>88.147816609564728</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>116.25506112855462</v>
+        <v>44.413568567369573</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>56.077608356750034</v>
+        <v>62.356593361833738</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>108.2888921834855</v>
+        <v>91.131343632356163</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>103.40318729731416</v>
+        <v>149.06364413877023</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2126,37 +2071,37 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>185.21391759346861</v>
+        <v>111.90945894111199</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>150.07827985005949</v>
+        <v>140.72938312332718</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>185.28947309722921</v>
+        <v>217.5823089868716</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>63.500304826415544</v>
+        <v>135.16434811876951</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>108.2888921834855</v>
+        <v>91.131343632356163</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>94.836101272369362</v>
+        <v>100.99284136594417</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>148.4921451947489</v>
+        <v>109.95353869128711</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>185.21391759346861</v>
+        <v>111.90945894111199</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2164,37 +2109,37 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>37.338442466303945</v>
+        <v>213.42234997943945</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>113.48613866813484</v>
+        <v>198.10054329178672</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>135.22101884171457</v>
+        <v>68.057348352245398</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>94.836101272369362</v>
+        <v>100.99284136594417</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>58.137528622628572</v>
+        <v>117.68585243874918</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>113.1088931813605</v>
+        <v>161.32509175042549</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>150.07827985005949</v>
+        <v>140.72938312332718</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>37.338442466303945</v>
+        <v>213.42234997943945</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2202,37 +2147,37 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>96.691775080812079</v>
+        <v>166.36215686257526</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>105.40006951914553</v>
+        <v>185.8572664809538</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>58.137528622628572</v>
+        <v>117.68585243874918</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>83.495083539806359</v>
+        <v>127.41054399349495</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>92.106506344333781</v>
+        <v>88.147816609564728</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>185.28947309722921</v>
+        <v>217.5823089868716</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>113.48613866813484</v>
+        <v>198.10054329178672</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>96.691775080812079</v>
+        <v>166.36215686257526</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2240,37 +2185,37 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>171.00547561576158</v>
+        <v>131.58462541607591</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>83.495083539806359</v>
+        <v>127.41054399349495</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>87.724723637531397</v>
+        <v>70.099632846504733</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>116.25506112855462</v>
+        <v>44.413568567369573</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>63.500304826415544</v>
+        <v>135.16434811876951</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>135.22101884171457</v>
+        <v>68.057348352245398</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>105.40006951914553</v>
+        <v>185.8572664809538</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>171.00547561576158</v>
+        <v>131.58462541607591</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2278,7 +2223,7 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>87.724723637531397</v>
+        <v>70.099632846504733</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2288,27 +2233,27 @@
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>56.077608356750034</v>
+        <v>62.356593361833738</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>108.2888921834855</v>
+        <v>91.131343632356163</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>94.836101272369362</v>
+        <v>100.99284136594417</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>58.137528622628572</v>
+        <v>117.68585243874918</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>83.495083539806359</v>
+        <v>127.41054399349495</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>87.724723637531397</v>
+        <v>70.099632846504733</v>
       </c>
       <c r="H8">
         <f>SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2328,7 +2273,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,27 +2285,27 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>0.70097010445937546</v>
+        <v>0.77945741702292171</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>1.3536111522935688</v>
+        <v>1.139141795404452</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>1.185451265904617</v>
+        <v>1.2624105170743021</v>
       </c>
       <c r="E1">
         <f ca="1">Distances!E1/80</f>
-        <v>0.7267191077828572</v>
+        <v>1.4710731554843648</v>
       </c>
       <c r="F1">
         <f ca="1">Distances!F1/80</f>
-        <v>1.0436885442475794</v>
+        <v>1.592631799918687</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>1.0965590454691425</v>
+        <v>0.87624541058130911</v>
       </c>
       <c r="H1">
         <f>Distances!H1/80</f>
@@ -2370,7 +2315,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>0.70097010445937546</v>
+        <v>0.77945741702292171</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -2378,37 +2323,37 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>1.2925398412164271</v>
+        <v>1.8632955517346279</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>1.8561518149343612</v>
+        <v>1.3744192336410888</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>1.4138611647670063</v>
+        <v>2.0165636468803187</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>1.1513313293041723</v>
+        <v>1.1018477076195592</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>1.4531882641069327</v>
+        <v>0.55516960709211971</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>0.70097010445937546</v>
+        <v>0.77945741702292171</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>1.3536111522935688</v>
+        <v>1.139141795404452</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>1.2925398412164271</v>
+        <v>1.8632955517346279</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -2416,37 +2361,37 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>2.3151739699183578</v>
+        <v>1.3988682367638998</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>1.8759784981257437</v>
+        <v>1.7591172890415898</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>2.316118413715365</v>
+        <v>2.7197788623358949</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>0.79375381033019432</v>
+        <v>1.689554351484619</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>1.3536111522935688</v>
+        <v>1.139141795404452</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>1.185451265904617</v>
+        <v>1.2624105170743021</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>1.8561518149343612</v>
+        <v>1.3744192336410888</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>2.3151739699183578</v>
+        <v>1.3988682367638998</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -2454,37 +2399,37 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>0.46673053082879934</v>
+        <v>2.667779374742993</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>1.4185767333516854</v>
+        <v>2.4762567911473341</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>1.6902627355214321</v>
+        <v>0.85071685440306744</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>1.185451265904617</v>
+        <v>1.2624105170743021</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>0.7267191077828572</v>
+        <v>1.4710731554843648</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>1.4138611647670063</v>
+        <v>2.0165636468803187</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>1.8759784981257437</v>
+        <v>1.7591172890415898</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>0.46673053082879934</v>
+        <v>2.667779374742993</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -2492,37 +2437,37 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>1.2086471885101511</v>
+        <v>2.0795269607821907</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>1.3175008689893191</v>
+        <v>2.3232158310119226</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>0.7267191077828572</v>
+        <v>1.4710731554843648</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>1.0436885442475794</v>
+        <v>1.592631799918687</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>1.1513313293041723</v>
+        <v>1.1018477076195592</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>2.316118413715365</v>
+        <v>2.7197788623358949</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>1.4185767333516854</v>
+        <v>2.4762567911473341</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>1.2086471885101511</v>
+        <v>2.0795269607821907</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -2530,37 +2475,37 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>2.1375684451970196</v>
+        <v>1.6448078177009489</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>1.0436885442475794</v>
+        <v>1.592631799918687</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>1.0965590454691425</v>
+        <v>0.87624541058130911</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>1.4531882641069327</v>
+        <v>0.55516960709211971</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>0.79375381033019432</v>
+        <v>1.689554351484619</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>1.6902627355214321</v>
+        <v>0.85071685440306744</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>1.3175008689893191</v>
+        <v>2.3232158310119226</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>2.1375684451970196</v>
+        <v>1.6448078177009489</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -2568,7 +2513,7 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>1.0965590454691425</v>
+        <v>0.87624541058130911</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2578,455 +2523,31 @@
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>0.70097010445937546</v>
+        <v>0.77945741702292171</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>1.3536111522935688</v>
+        <v>1.139141795404452</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>1.185451265904617</v>
+        <v>1.2624105170743021</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>0.7267191077828572</v>
+        <v>1.4710731554843648</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>1.0436885442475794</v>
+        <v>1.592631799918687</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>1.0965590454691425</v>
+        <v>0.87624541058130911</v>
       </c>
       <c r="H8">
         <f>Distances!H8/80</f>
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D636C-B1F2-40ED-AFFD-CEAECA9A3EA3}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3193DF46-A5F5-411E-9E65-0CD84739E551}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A14196F-B2E4-4597-BD06-5E39E2E8AD11}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/6 3/ExactModelData.xlsx
+++ b/6 3/ExactModelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\6 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54AA98D-1B2D-420F-8969-7B7E7E701BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF11B4F-0595-4103-A70B-3B94EF2D4E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -350,22 +350,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-62.070913465935988</c:v>
+                  <c:v>-79.831055676774014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.927249014187126</c:v>
+                  <c:v>42.870224310675624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-25.482220256579268</c:v>
+                  <c:v>45.692739129269995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.434646951969327</c:v>
+                  <c:v>63.296492525144913</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-90.924027549961806</c:v>
+                  <c:v>18.67463767593739</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-58.696650929808186</c:v>
+                  <c:v>63.395127009694903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,22 +380,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9620832933944996</c:v>
+                  <c:v>75.31328069209431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-50.398161170584402</c:v>
+                  <c:v>85.545294547822621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-97.725178219136268</c:v>
+                  <c:v>26.432894686288492</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.330359810347204</c:v>
+                  <c:v>1.95936486263993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.253951928259724</c:v>
+                  <c:v>23.805040970946138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-38.323122195862553</c:v>
+                  <c:v>-36.379067154033265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1465,8 +1465,8 @@
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,19 +1553,19 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>Rigid</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.2883792291030953</v>
+        <v>0.99810916974698838</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>13.070042869362709</v>
+        <v>9.8595206832757505</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1585,9 +1585,8 @@
       <c r="K2">
         <v>24</v>
       </c>
-      <c r="L2" cm="1">
-        <f t="array" aca="1" ref="L2:L8" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>3.3457985633878529E-2</v>
+      <c r="L2">
+        <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
@@ -1600,11 +1599,11 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>0.73987492886276751</v>
+        <v>0.99810916974698838</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>7.9638980804913171</v>
+        <v>9.8595206832757505</v>
       </c>
       <c r="U2">
         <v>16</v>
@@ -1616,34 +1615,34 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>8 metre</v>
+        <v>11 metre</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.724397820298323</v>
+        <v>0.80892526509441387</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>10.270404297638047</v>
+        <v>10.196312732312782</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H8" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>-62.070913465935988</v>
+        <v>-79.831055676774014</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>5.9620832933944996</v>
+        <v>75.31328069209431</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3:I8" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1653,9 +1652,9 @@
         <f ca="1">IF(J3=0,24,J3+1)</f>
         <v>24</v>
       </c>
-      <c r="L3">
-        <f ca="1"/>
-        <v>3.6850207338849972E-2</v>
+      <c r="L3" cm="1">
+        <f t="array" aca="1" ref="L3:L8" ca="1">_xlfn.RANDARRAY(P2,1,P7,P6,FALSE)</f>
+        <v>0.10908692613526491</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1668,11 +1667,11 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>0.724397820298323</v>
+        <v>1.2956617874453051</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>10.270404297638047</v>
+        <v>11.424282921716907</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -1684,46 +1683,46 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>8 metre</v>
+        <v>Rigid</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.724397820298323</v>
+        <v>0.99810916974698838</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>10.270404297638047</v>
+        <v>9.8595206832757505</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>75.927249014187126</v>
+        <v>42.870224310675624</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>-50.398161170584402</v>
+        <v>85.545294547822621</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J8" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K6" ca="1" si="1">IF(J4=0,24,J4+1)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>0.10154860063182067</v>
+        <v>7.7158321814951053E-2</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1736,11 +1735,11 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>1.2883792291030953</v>
+        <v>0.80892526509441387</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>13.070042869362709</v>
+        <v>10.196312732312782</v>
       </c>
       <c r="U4">
         <v>30</v>
@@ -1752,33 +1751,34 @@
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>-25.482220256579268</v>
+        <v>45.692739129269995</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>-97.725178219136268</v>
+        <v>26.432894686288492</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>0.11979806981825189</v>
+        <v>0.11046672880667632</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="5">
-        <v>0.33</v>
+        <f ca="1">COUNT(E:E)/P2/2</f>
+        <v>0.25</v>
       </c>
       <c r="R5" s="6"/>
     </row>
@@ -1788,15 +1788,15 @@
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>75.434646951969327</v>
+        <v>63.296492525144913</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>90.330359810347204</v>
+        <v>1.95936486263993</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>9.5228050625277422E-2</v>
+        <v>0.166179932247011</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1825,27 +1825,27 @@
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>-90.924027549961806</v>
+        <v>18.67463767593739</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>89.253951928259724</v>
+        <v>23.805040970946138</v>
       </c>
       <c r="I7">
         <f ca="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7:K8" ca="1" si="2">IF(J7=0,24,J7+1)</f>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>0.14226155620160533</v>
+        <v>3.0714481585943171E-2</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -1861,27 +1861,27 @@
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>-58.696650929808186</v>
+        <v>63.395127009694903</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>-38.323122195862553</v>
+        <v>-36.379067154033265</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>9.4706942220746576E-2</v>
+        <v>9.6089068400041555E-2</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1958,13 +1958,13 @@
       </c>
       <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.44594594594594594</v>
+        <v>0.66129032258064513</v>
       </c>
     </row>
   </sheetData>
@@ -1995,27 +1995,27 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>62.356593361833738</v>
+        <v>109.75011480210114</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>91.131343632356163</v>
+        <v>95.686224461629664</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>100.99284136594417</v>
+        <v>52.787539539477876</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>117.68585243874918</v>
+        <v>63.326811672866285</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>127.41054399349495</v>
+        <v>30.255942688271414</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>70.099632846504733</v>
+        <v>73.091577186246369</v>
       </c>
       <c r="H1">
         <f>SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
@@ -2025,7 +2025,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>62.356593361833738</v>
+        <v>109.75011480210114</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2033,37 +2033,37 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>149.06364413877023</v>
+        <v>123.12716279563305</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>109.95353869128711</v>
+        <v>134.70529016555517</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>161.32509175042549</v>
+        <v>160.83000970530128</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>88.147816609564728</v>
+        <v>111.15966166766466</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>44.413568567369573</v>
+        <v>181.62852191855256</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>62.356593361833738</v>
+        <v>109.75011480210114</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>91.131343632356163</v>
+        <v>95.686224461629664</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>149.06364413877023</v>
+        <v>123.12716279563305</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2071,37 +2071,37 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>111.90945894111199</v>
+        <v>59.179746597050283</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>140.72938312332718</v>
+        <v>86.045569755250867</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>217.5823089868716</v>
+        <v>66.312030012179036</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>135.16434811876951</v>
+        <v>123.63988679713837</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>91.131343632356163</v>
+        <v>95.686224461629664</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>100.99284136594417</v>
+        <v>52.787539539477876</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>109.95353869128711</v>
+        <v>134.70529016555517</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>111.90945894111199</v>
+        <v>59.179746597050283</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2109,37 +2109,37 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>213.42234997943945</v>
+        <v>30.147069437207215</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>198.10054329178672</v>
+        <v>27.145596720127781</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>68.057348352245398</v>
+        <v>65.258846809448386</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>100.99284136594417</v>
+        <v>52.787539539477876</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>117.68585243874918</v>
+        <v>63.326811672866285</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>161.32509175042549</v>
+        <v>160.83000970530128</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>140.72938312332718</v>
+        <v>86.045569755250867</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>213.42234997943945</v>
+        <v>30.147069437207215</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2147,37 +2147,37 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>166.36215686257526</v>
+        <v>49.682426418329911</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>185.8572664809538</v>
+        <v>38.338558896476727</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>117.68585243874918</v>
+        <v>63.326811672866285</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>127.41054399349495</v>
+        <v>30.255942688271414</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>88.147816609564728</v>
+        <v>111.15966166766466</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>217.5823089868716</v>
+        <v>66.312030012179036</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>198.10054329178672</v>
+        <v>27.145596720127781</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>166.36215686257526</v>
+        <v>49.682426418329911</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2185,37 +2185,37 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>131.58462541607591</v>
+        <v>74.980324332787006</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>127.41054399349495</v>
+        <v>30.255942688271414</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>70.099632846504733</v>
+        <v>73.091577186246369</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>44.413568567369573</v>
+        <v>181.62852191855256</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>135.16434811876951</v>
+        <v>123.63988679713837</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>68.057348352245398</v>
+        <v>65.258846809448386</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>185.8572664809538</v>
+        <v>38.338558896476727</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>131.58462541607591</v>
+        <v>74.980324332787006</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>70.099632846504733</v>
+        <v>73.091577186246369</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2233,27 +2233,27 @@
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>62.356593361833738</v>
+        <v>109.75011480210114</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>91.131343632356163</v>
+        <v>95.686224461629664</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>100.99284136594417</v>
+        <v>52.787539539477876</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>117.68585243874918</v>
+        <v>63.326811672866285</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>127.41054399349495</v>
+        <v>30.255942688271414</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>70.099632846504733</v>
+        <v>73.091577186246369</v>
       </c>
       <c r="H8">
         <f>SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2285,27 +2285,27 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>0.77945741702292171</v>
+        <v>1.3718764350262642</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>1.139141795404452</v>
+        <v>1.1960778057703707</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>1.2624105170743021</v>
+        <v>0.65984424424347343</v>
       </c>
       <c r="E1">
         <f ca="1">Distances!E1/80</f>
-        <v>1.4710731554843648</v>
+        <v>0.79158514591082851</v>
       </c>
       <c r="F1">
         <f ca="1">Distances!F1/80</f>
-        <v>1.592631799918687</v>
+        <v>0.37819928360339267</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>0.87624541058130911</v>
+        <v>0.91364471482807963</v>
       </c>
       <c r="H1">
         <f>Distances!H1/80</f>
@@ -2315,7 +2315,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>0.77945741702292171</v>
+        <v>1.3718764350262642</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -2323,37 +2323,37 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>1.8632955517346279</v>
+        <v>1.5390895349454132</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>1.3744192336410888</v>
+        <v>1.6838161270694396</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>2.0165636468803187</v>
+        <v>2.0103751213162662</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>1.1018477076195592</v>
+        <v>1.3894957708458082</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>0.55516960709211971</v>
+        <v>2.2703565239819072</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>0.77945741702292171</v>
+        <v>1.3718764350262642</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>1.139141795404452</v>
+        <v>1.1960778057703707</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>1.8632955517346279</v>
+        <v>1.5390895349454132</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -2361,37 +2361,37 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>1.3988682367638998</v>
+        <v>0.73974683246312856</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>1.7591172890415898</v>
+        <v>1.0755696219406359</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>2.7197788623358949</v>
+        <v>0.82890037515223791</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>1.689554351484619</v>
+        <v>1.5454985849642298</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>1.139141795404452</v>
+        <v>1.1960778057703707</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>1.2624105170743021</v>
+        <v>0.65984424424347343</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>1.3744192336410888</v>
+        <v>1.6838161270694396</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>1.3988682367638998</v>
+        <v>0.73974683246312856</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -2399,37 +2399,37 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>2.667779374742993</v>
+        <v>0.37683836796509018</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>2.4762567911473341</v>
+        <v>0.33931995900159728</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>0.85071685440306744</v>
+        <v>0.81573558511810484</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>1.2624105170743021</v>
+        <v>0.65984424424347343</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>1.4710731554843648</v>
+        <v>0.79158514591082851</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>2.0165636468803187</v>
+        <v>2.0103751213162662</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>1.7591172890415898</v>
+        <v>1.0755696219406359</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>2.667779374742993</v>
+        <v>0.37683836796509018</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -2437,37 +2437,37 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>2.0795269607821907</v>
+        <v>0.62103033022912391</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>2.3232158310119226</v>
+        <v>0.47923198620595908</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>1.4710731554843648</v>
+        <v>0.79158514591082851</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>1.592631799918687</v>
+        <v>0.37819928360339267</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>1.1018477076195592</v>
+        <v>1.3894957708458082</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>2.7197788623358949</v>
+        <v>0.82890037515223791</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>2.4762567911473341</v>
+        <v>0.33931995900159728</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>2.0795269607821907</v>
+        <v>0.62103033022912391</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -2475,37 +2475,37 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>1.6448078177009489</v>
+        <v>0.93725405415983754</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>1.592631799918687</v>
+        <v>0.37819928360339267</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>0.87624541058130911</v>
+        <v>0.91364471482807963</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>0.55516960709211971</v>
+        <v>2.2703565239819072</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>1.689554351484619</v>
+        <v>1.5454985849642298</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>0.85071685440306744</v>
+        <v>0.81573558511810484</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>2.3232158310119226</v>
+        <v>0.47923198620595908</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>1.6448078177009489</v>
+        <v>0.93725405415983754</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>0.87624541058130911</v>
+        <v>0.91364471482807963</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2523,27 +2523,27 @@
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>0.77945741702292171</v>
+        <v>1.3718764350262642</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>1.139141795404452</v>
+        <v>1.1960778057703707</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>1.2624105170743021</v>
+        <v>0.65984424424347343</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>1.4710731554843648</v>
+        <v>0.79158514591082851</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>1.592631799918687</v>
+        <v>0.37819928360339267</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>0.87624541058130911</v>
+        <v>0.91364471482807963</v>
       </c>
       <c r="H8">
         <f>Distances!H8/80</f>

--- a/6 3/ExactModelData.xlsx
+++ b/6 3/ExactModelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\6 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\6 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF11B4F-0595-4103-A70B-3B94EF2D4E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26122F06-F8A1-4178-9E19-19C09A5F508A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -350,22 +350,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-79.831055676774014</c:v>
+                  <c:v>19.872407851561348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.870224310675624</c:v>
+                  <c:v>-43.554206339658663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.692739129269995</c:v>
+                  <c:v>-5.7163573501562723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.296492525144913</c:v>
+                  <c:v>-12.634025197454278</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.67463767593739</c:v>
+                  <c:v>6.9626091618228116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.395127009694903</c:v>
+                  <c:v>18.879758884773736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,22 +380,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.31328069209431</c:v>
+                  <c:v>5.719121221212248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.545294547822621</c:v>
+                  <c:v>32.163759888634544</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.432894686288492</c:v>
+                  <c:v>22.567897369424841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.95936486263993</c:v>
+                  <c:v>-86.556295182121687</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.805040970946138</c:v>
+                  <c:v>59.913288420228696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-36.379067154033265</c:v>
+                  <c:v>17.359705948568049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1465,7 +1465,7 @@
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -1553,19 +1553,19 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>8 metre</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.99810916974698838</v>
+        <v>0.91925645196769601</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>9.8595206832757505</v>
+        <v>11.678189733729678</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>0.99810916974698838</v>
+        <v>1.2065229089008405</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>9.8595206832757505</v>
+        <v>7.5572134380252347</v>
       </c>
       <c r="U2">
         <v>16</v>
@@ -1615,30 +1615,30 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>Rigid</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.80892526509441387</v>
+        <v>1.2065229089008405</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>10.196312732312782</v>
+        <v>7.5572134380252347</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H8" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>-79.831055676774014</v>
+        <v>19.872407851561348</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>75.31328069209431</v>
+        <v>5.719121221212248</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3:I8" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
@@ -1646,15 +1646,15 @@
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <f ca="1">IF(J3=0,24,J3+1)</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3:L8" ca="1">_xlfn.RANDARRAY(P2,1,P7,P6,FALSE)</f>
-        <v>0.10908692613526491</v>
+        <v>3.5187036545913375E-2</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1667,11 +1667,11 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>1.2956617874453051</v>
+        <v>0.91925645196769601</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>11.424282921716907</v>
+        <v>11.678189733729678</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -1683,34 +1683,34 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>11 metre</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.99810916974698838</v>
+        <v>1.4682300503697137</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>9.8595206832757505</v>
+        <v>11.729499492317522</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>42.870224310675624</v>
+        <v>-43.554206339658663</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>85.545294547822621</v>
+        <v>32.163759888634544</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J8" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>7.7158321814951053E-2</v>
+        <v>0.13202980377092155</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1735,11 +1735,11 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>0.80892526509441387</v>
+        <v>1.4682300503697137</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>10.196312732312782</v>
+        <v>11.729499492317522</v>
       </c>
       <c r="U4">
         <v>30</v>
@@ -1751,27 +1751,27 @@
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>45.692739129269995</v>
+        <v>-5.7163573501562723</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>26.432894686288492</v>
+        <v>22.567897369424841</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>0.11046672880667632</v>
+        <v>6.9946845338180214E-2</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
@@ -1788,27 +1788,27 @@
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>63.296492525144913</v>
+        <v>-12.634025197454278</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>1.95936486263993</v>
+        <v>-86.556295182121687</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>0.166179932247011</v>
+        <v>3.9419784744380293E-2</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1825,27 +1825,27 @@
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>18.67463767593739</v>
+        <v>6.9626091618228116</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>23.805040970946138</v>
+        <v>59.913288420228696</v>
       </c>
       <c r="I7">
         <f ca="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7:K8" ca="1" si="2">IF(J7=0,24,J7+1)</f>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>3.0714481585943171E-2</v>
+        <v>5.2612969944043492E-2</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -1861,27 +1861,27 @@
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>63.395127009694903</v>
+        <v>18.879758884773736</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>-36.379067154033265</v>
+        <v>17.359705948568049</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>9.6089068400041555E-2</v>
+        <v>0.15372578037040704</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1958,13 +1958,13 @@
       </c>
       <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.66129032258064513</v>
+        <v>0.54411764705882348</v>
       </c>
     </row>
   </sheetData>
@@ -1995,27 +1995,27 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>109.75011480210114</v>
+        <v>20.678997590833976</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>95.686224461629664</v>
+        <v>54.143109811418292</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>52.787539539477876</v>
+        <v>23.280608519357443</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>63.326811672866285</v>
+        <v>87.473486430715056</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>30.255942688271414</v>
+        <v>60.316499033563019</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>73.091577186246369</v>
+        <v>25.647703331252522</v>
       </c>
       <c r="H1">
         <f>SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
@@ -2025,7 +2025,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>109.75011480210114</v>
+        <v>20.678997590833976</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2033,37 +2033,37 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>123.12716279563305</v>
+        <v>68.718660507990108</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>134.70529016555517</v>
+        <v>30.637659216089148</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>160.83000970530128</v>
+        <v>97.833637681417144</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>111.15966166766466</v>
+        <v>55.71059738150835</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>181.62852191855256</v>
+        <v>11.682832052461151</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>109.75011480210114</v>
+        <v>20.678997590833976</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>95.686224461629664</v>
+        <v>54.143109811418292</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>123.12716279563305</v>
+        <v>68.718660507990108</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2071,37 +2071,37 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>59.179746597050283</v>
+        <v>39.035668223305215</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>86.045569755250867</v>
+        <v>122.68051629280879</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>66.312030012179036</v>
+        <v>57.636663523632912</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>123.63988679713837</v>
+        <v>64.165099756067022</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>95.686224461629664</v>
+        <v>54.143109811418292</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>52.787539539477876</v>
+        <v>23.280608519357443</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>134.70529016555517</v>
+        <v>30.637659216089148</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>59.179746597050283</v>
+        <v>39.035668223305215</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2109,37 +2109,37 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>30.147069437207215</v>
+        <v>109.34323723245322</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>27.145596720127781</v>
+        <v>39.438996241655893</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>65.258846809448386</v>
+        <v>25.141483482851083</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>52.787539539477876</v>
+        <v>23.280608519357443</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>63.326811672866285</v>
+        <v>87.473486430715056</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>160.83000970530128</v>
+        <v>97.833637681417144</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>86.045569755250867</v>
+        <v>122.68051629280879</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>30.147069437207215</v>
+        <v>109.34323723245322</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2147,37 +2147,37 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>49.682426418329911</v>
+        <v>147.77471704881424</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>38.338558896476727</v>
+        <v>108.58938197712887</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>63.326811672866285</v>
+        <v>87.473486430715056</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>30.255942688271414</v>
+        <v>60.316499033563019</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>111.15966166766466</v>
+        <v>55.71059738150835</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>66.312030012179036</v>
+        <v>57.636663523632912</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>27.145596720127781</v>
+        <v>39.438996241655893</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>49.682426418329911</v>
+        <v>147.77471704881424</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2185,37 +2185,37 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>74.980324332787006</v>
+        <v>44.19078907070628</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>30.255942688271414</v>
+        <v>60.316499033563019</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>73.091577186246369</v>
+        <v>25.647703331252522</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>181.62852191855256</v>
+        <v>11.682832052461151</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>123.63988679713837</v>
+        <v>64.165099756067022</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>65.258846809448386</v>
+        <v>25.141483482851083</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>38.338558896476727</v>
+        <v>108.58938197712887</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>74.980324332787006</v>
+        <v>44.19078907070628</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>73.091577186246369</v>
+        <v>25.647703331252522</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2233,27 +2233,27 @@
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>109.75011480210114</v>
+        <v>20.678997590833976</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>95.686224461629664</v>
+        <v>54.143109811418292</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>52.787539539477876</v>
+        <v>23.280608519357443</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>63.326811672866285</v>
+        <v>87.473486430715056</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>30.255942688271414</v>
+        <v>60.316499033563019</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>73.091577186246369</v>
+        <v>25.647703331252522</v>
       </c>
       <c r="H8">
         <f>SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2272,8 +2272,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,27 +2285,27 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>1.3718764350262642</v>
+        <v>0.2584874698854247</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>1.1960778057703707</v>
+        <v>0.67678887264272869</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>0.65984424424347343</v>
+        <v>0.29100760649196805</v>
       </c>
       <c r="E1">
         <f ca="1">Distances!E1/80</f>
-        <v>0.79158514591082851</v>
+        <v>1.0934185803839382</v>
       </c>
       <c r="F1">
         <f ca="1">Distances!F1/80</f>
-        <v>0.37819928360339267</v>
+        <v>0.7539562379195377</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>0.91364471482807963</v>
+        <v>0.32059629164065651</v>
       </c>
       <c r="H1">
         <f>Distances!H1/80</f>
@@ -2315,7 +2315,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>1.3718764350262642</v>
+        <v>0.2584874698854247</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -2323,37 +2323,37 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>1.5390895349454132</v>
+        <v>0.85898325634987638</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>1.6838161270694396</v>
+        <v>0.38297074020111432</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>2.0103751213162662</v>
+        <v>1.2229204710177144</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>1.3894957708458082</v>
+        <v>0.69638246726885433</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>2.2703565239819072</v>
+        <v>0.1460354006557644</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>1.3718764350262642</v>
+        <v>0.2584874698854247</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>1.1960778057703707</v>
+        <v>0.67678887264272869</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>1.5390895349454132</v>
+        <v>0.85898325634987638</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -2361,37 +2361,37 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>0.73974683246312856</v>
+        <v>0.48794585279131519</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>1.0755696219406359</v>
+        <v>1.53350645366011</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>0.82890037515223791</v>
+        <v>0.7204582940454114</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>1.5454985849642298</v>
+        <v>0.80206374695083782</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>1.1960778057703707</v>
+        <v>0.67678887264272869</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>0.65984424424347343</v>
+        <v>0.29100760649196805</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>1.6838161270694396</v>
+        <v>0.38297074020111432</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>0.73974683246312856</v>
+        <v>0.48794585279131519</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -2399,37 +2399,37 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>0.37683836796509018</v>
+        <v>1.3667904654056653</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>0.33931995900159728</v>
+        <v>0.49298745302069868</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>0.81573558511810484</v>
+        <v>0.31426854353563854</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>0.65984424424347343</v>
+        <v>0.29100760649196805</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>0.79158514591082851</v>
+        <v>1.0934185803839382</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>2.0103751213162662</v>
+        <v>1.2229204710177144</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>1.0755696219406359</v>
+        <v>1.53350645366011</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>0.37683836796509018</v>
+        <v>1.3667904654056653</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -2437,37 +2437,37 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>0.62103033022912391</v>
+        <v>1.8471839631101781</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>0.47923198620595908</v>
+        <v>1.3573672747141108</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>0.79158514591082851</v>
+        <v>1.0934185803839382</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>0.37819928360339267</v>
+        <v>0.7539562379195377</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>1.3894957708458082</v>
+        <v>0.69638246726885433</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>0.82890037515223791</v>
+        <v>0.7204582940454114</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>0.33931995900159728</v>
+        <v>0.49298745302069868</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>0.62103033022912391</v>
+        <v>1.8471839631101781</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -2475,37 +2475,37 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>0.93725405415983754</v>
+        <v>0.55238486338382853</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>0.37819928360339267</v>
+        <v>0.7539562379195377</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>0.91364471482807963</v>
+        <v>0.32059629164065651</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>2.2703565239819072</v>
+        <v>0.1460354006557644</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>1.5454985849642298</v>
+        <v>0.80206374695083782</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>0.81573558511810484</v>
+        <v>0.31426854353563854</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>0.47923198620595908</v>
+        <v>1.3573672747141108</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>0.93725405415983754</v>
+        <v>0.55238486338382853</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>0.91364471482807963</v>
+        <v>0.32059629164065651</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2523,27 +2523,27 @@
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>1.3718764350262642</v>
+        <v>0.2584874698854247</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>1.1960778057703707</v>
+        <v>0.67678887264272869</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>0.65984424424347343</v>
+        <v>0.29100760649196805</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>0.79158514591082851</v>
+        <v>1.0934185803839382</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>0.37819928360339267</v>
+        <v>0.7539562379195377</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>0.91364471482807963</v>
+        <v>0.32059629164065651</v>
       </c>
       <c r="H8">
         <f>Distances!H8/80</f>
